--- a/assets/project-3/duncan-snooks-financial-tools.xlsx
+++ b/assets/project-3/duncan-snooks-financial-tools.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dunca\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dunca\Documents\GitHub\portfolio-for-creatives\assets\project-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4854E5F2-D998-4185-9DD6-B879D6A7B3F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A41A396-6F12-4990-BE93-2C7D4544D608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{6ED092DE-E0D3-4C37-B149-9F6989F5946E}"/>
+    <workbookView xWindow="6840" yWindow="540" windowWidth="19635" windowHeight="14805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -630,7 +630,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
@@ -666,13 +666,9 @@
     <xf numFmtId="44" fontId="0" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -710,6 +706,13 @@
     <xf numFmtId="8" fontId="4" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45" readingOrder="1"/>
     </xf>
@@ -724,6 +727,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="12"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -798,7 +804,7 @@
     </a:clrScheme>
     <a:fontScheme name="Slice">
       <a:majorFont>
-        <a:latin typeface="Century Gothic" panose="020B0502020202020204"/>
+        <a:latin typeface="Century Gothic"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="メイリオ"/>
@@ -833,7 +839,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Century Gothic" panose="020B0502020202020204"/>
+        <a:latin typeface="Century Gothic"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="メイリオ"/>
@@ -1030,11 +1036,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{872A3729-4367-4AA4-BD4A-8579EB3479BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AB40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1120,7 +1126,7 @@
       </c>
       <c r="E5" s="13">
         <f ca="1">NOW()</f>
-        <v>45376.595724884261</v>
+        <v>45389.636096180555</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>7</v>
@@ -1165,7 +1171,7 @@
       <c r="F6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="73">
         <v>25</v>
       </c>
       <c r="H6" s="69"/>
@@ -1212,29 +1218,29 @@
       <c r="F7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="66" t="s">
         <v>14</v>
       </c>
       <c r="H7" s="71"/>
       <c r="I7" s="72"/>
       <c r="J7" s="72"/>
-      <c r="K7" s="27"/>
+      <c r="K7" s="26"/>
       <c r="L7" s="12">
         <v>2</v>
       </c>
-      <c r="M7" s="28">
+      <c r="M7" s="27">
         <f>N6</f>
         <v>0</v>
       </c>
-      <c r="N7" s="28">
+      <c r="N7" s="27">
         <f t="shared" ref="N7:N30" si="0">IF(L7&lt;=$G$6,PV($G$5/$G$8,$G$8*($G$6-L7),-$G$9),0)</f>
         <v>0</v>
       </c>
-      <c r="O7" s="28">
+      <c r="O7" s="27">
         <f t="shared" ref="O7:O30" si="1">M7-N7</f>
         <v>0</v>
       </c>
-      <c r="P7" s="29">
+      <c r="P7" s="28">
         <f t="shared" ref="P7:P30" si="2">IF(M7&gt;0,$G$8*$G$9-O7,0)</f>
         <v>0</v>
       </c>
@@ -1253,7 +1259,7 @@
       <c r="D8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="67">
         <v>0.2</v>
       </c>
       <c r="F8" s="21" t="s">
@@ -1270,19 +1276,19 @@
       <c r="L8" s="12">
         <v>3</v>
       </c>
-      <c r="M8" s="28">
+      <c r="M8" s="27">
         <f t="shared" ref="M8:M30" si="3">N7</f>
         <v>0</v>
       </c>
-      <c r="N8" s="28">
+      <c r="N8" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O8" s="28">
+      <c r="O8" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P8" s="29">
+      <c r="P8" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1301,14 +1307,14 @@
       <c r="D9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="29">
         <f>$E$7*$E$8</f>
         <v>0</v>
       </c>
       <c r="F9" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G9" s="30">
         <f>-PMT($G$5/$G$8,$G$8*$G$6,$E$10)</f>
         <v>0</v>
       </c>
@@ -1319,19 +1325,19 @@
       <c r="L9" s="12">
         <v>4</v>
       </c>
-      <c r="M9" s="28">
+      <c r="M9" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N9" s="28">
+      <c r="N9" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O9" s="28">
+      <c r="O9" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P9" s="29">
+      <c r="P9" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1344,14 +1350,14 @@
       <c r="D10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="29">
         <f>$E$7-$E$9</f>
         <v>0</v>
       </c>
       <c r="F10" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="66">
+      <c r="G10" s="64">
         <f>($G$9*$G$8*$G$6)-$E$10</f>
         <v>0</v>
       </c>
@@ -1362,19 +1368,19 @@
       <c r="L10" s="12">
         <v>5</v>
       </c>
-      <c r="M10" s="28">
+      <c r="M10" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N10" s="28">
+      <c r="N10" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O10" s="28">
+      <c r="O10" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P10" s="29">
+      <c r="P10" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1387,12 +1393,12 @@
     <row r="11" spans="2:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="35" t="s">
+      <c r="D11" s="31"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="67">
+      <c r="G11" s="65">
         <f>$E$7+$G$10</f>
         <v>0</v>
       </c>
@@ -1403,19 +1409,19 @@
       <c r="L11" s="12">
         <v>6</v>
       </c>
-      <c r="M11" s="28">
+      <c r="M11" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N11" s="28">
+      <c r="N11" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O11" s="28">
+      <c r="O11" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P11" s="29">
+      <c r="P11" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1439,19 +1445,19 @@
       <c r="L12" s="12">
         <v>7</v>
       </c>
-      <c r="M12" s="28">
+      <c r="M12" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N12" s="28">
+      <c r="N12" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O12" s="28">
+      <c r="O12" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P12" s="29">
+      <c r="P12" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1477,19 +1483,19 @@
       <c r="L13" s="12">
         <v>8</v>
       </c>
-      <c r="M13" s="28">
+      <c r="M13" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N13" s="28">
+      <c r="N13" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O13" s="28">
+      <c r="O13" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P13" s="29">
+      <c r="P13" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1504,30 +1510,30 @@
       <c r="C14" s="6"/>
       <c r="D14" s="12"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="63" t="s">
+      <c r="F14" s="59"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="62"/>
-      <c r="J14" s="64"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="62"/>
       <c r="K14" s="6"/>
       <c r="L14" s="12">
         <v>9</v>
       </c>
-      <c r="M14" s="28">
+      <c r="M14" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N14" s="28">
+      <c r="N14" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O14" s="28">
+      <c r="O14" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P14" s="29">
+      <c r="P14" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1541,42 +1547,42 @@
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
       <c r="D15" s="12"/>
-      <c r="E15" s="65">
+      <c r="E15" s="63">
         <f>$G$9</f>
         <v>0</v>
       </c>
-      <c r="F15" s="37">
+      <c r="F15" s="35">
         <v>5</v>
       </c>
-      <c r="G15" s="37">
+      <c r="G15" s="35">
         <v>10</v>
       </c>
-      <c r="H15" s="37">
+      <c r="H15" s="35">
         <v>15</v>
       </c>
-      <c r="I15" s="37">
+      <c r="I15" s="35">
         <v>20</v>
       </c>
-      <c r="J15" s="38">
+      <c r="J15" s="36">
         <v>25</v>
       </c>
       <c r="K15" s="6"/>
       <c r="L15" s="12">
         <v>10</v>
       </c>
-      <c r="M15" s="28">
+      <c r="M15" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N15" s="28">
+      <c r="N15" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O15" s="28">
+      <c r="O15" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P15" s="29">
+      <c r="P15" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1590,42 +1596,42 @@
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
       <c r="D16" s="12"/>
-      <c r="E16" s="39">
+      <c r="E16" s="37">
         <v>0.02</v>
       </c>
-      <c r="F16" s="40">
+      <c r="F16" s="38">
         <f t="dataTable" ref="F16:J37" dt2D="1" dtr="1" r1="G6" r2="G5"/>
         <v>0</v>
       </c>
-      <c r="G16" s="40">
-        <v>0</v>
-      </c>
-      <c r="H16" s="40">
-        <v>0</v>
-      </c>
-      <c r="I16" s="40">
-        <v>0</v>
-      </c>
-      <c r="J16" s="41">
+      <c r="G16" s="38">
+        <v>0</v>
+      </c>
+      <c r="H16" s="38">
+        <v>0</v>
+      </c>
+      <c r="I16" s="38">
+        <v>0</v>
+      </c>
+      <c r="J16" s="39">
         <v>0</v>
       </c>
       <c r="K16" s="6"/>
       <c r="L16" s="12">
         <v>11</v>
       </c>
-      <c r="M16" s="28">
+      <c r="M16" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N16" s="28">
+      <c r="N16" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O16" s="28">
+      <c r="O16" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P16" s="29">
+      <c r="P16" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1636,41 +1642,41 @@
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="39">
+      <c r="E17" s="37">
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="F17" s="42">
-        <v>0</v>
-      </c>
-      <c r="G17" s="42">
-        <v>0</v>
-      </c>
-      <c r="H17" s="42">
-        <v>0</v>
-      </c>
-      <c r="I17" s="42">
-        <v>0</v>
-      </c>
-      <c r="J17" s="43">
+      <c r="F17" s="40">
+        <v>0</v>
+      </c>
+      <c r="G17" s="40">
+        <v>0</v>
+      </c>
+      <c r="H17" s="40">
+        <v>0</v>
+      </c>
+      <c r="I17" s="40">
+        <v>0</v>
+      </c>
+      <c r="J17" s="41">
         <v>0</v>
       </c>
       <c r="K17" s="6"/>
       <c r="L17" s="12">
         <v>12</v>
       </c>
-      <c r="M17" s="28">
+      <c r="M17" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N17" s="28">
+      <c r="N17" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O17" s="28">
+      <c r="O17" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P17" s="29">
+      <c r="P17" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1684,41 +1690,41 @@
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
       <c r="D18" s="12"/>
-      <c r="E18" s="39">
+      <c r="E18" s="37">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F18" s="42">
-        <v>0</v>
-      </c>
-      <c r="G18" s="42">
-        <v>0</v>
-      </c>
-      <c r="H18" s="42">
-        <v>0</v>
-      </c>
-      <c r="I18" s="42">
-        <v>0</v>
-      </c>
-      <c r="J18" s="43">
+      <c r="F18" s="40">
+        <v>0</v>
+      </c>
+      <c r="G18" s="40">
+        <v>0</v>
+      </c>
+      <c r="H18" s="40">
+        <v>0</v>
+      </c>
+      <c r="I18" s="40">
+        <v>0</v>
+      </c>
+      <c r="J18" s="41">
         <v>0</v>
       </c>
       <c r="K18" s="6"/>
       <c r="L18" s="12">
         <v>13</v>
       </c>
-      <c r="M18" s="28">
+      <c r="M18" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N18" s="28">
+      <c r="N18" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O18" s="28">
+      <c r="O18" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P18" s="29">
+      <c r="P18" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1732,41 +1738,41 @@
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
       <c r="D19" s="12"/>
-      <c r="E19" s="39">
+      <c r="E19" s="37">
         <v>2.75E-2</v>
       </c>
-      <c r="F19" s="42">
-        <v>0</v>
-      </c>
-      <c r="G19" s="42">
-        <v>0</v>
-      </c>
-      <c r="H19" s="42">
-        <v>0</v>
-      </c>
-      <c r="I19" s="42">
-        <v>0</v>
-      </c>
-      <c r="J19" s="43">
+      <c r="F19" s="40">
+        <v>0</v>
+      </c>
+      <c r="G19" s="40">
+        <v>0</v>
+      </c>
+      <c r="H19" s="40">
+        <v>0</v>
+      </c>
+      <c r="I19" s="40">
+        <v>0</v>
+      </c>
+      <c r="J19" s="41">
         <v>0</v>
       </c>
       <c r="K19" s="6"/>
       <c r="L19" s="12">
         <v>14</v>
       </c>
-      <c r="M19" s="28">
+      <c r="M19" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N19" s="28">
+      <c r="N19" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O19" s="28">
+      <c r="O19" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P19" s="29">
+      <c r="P19" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1780,41 +1786,41 @@
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
       <c r="D20" s="12"/>
-      <c r="E20" s="39">
+      <c r="E20" s="37">
         <v>0.03</v>
       </c>
-      <c r="F20" s="42">
-        <v>0</v>
-      </c>
-      <c r="G20" s="42">
-        <v>0</v>
-      </c>
-      <c r="H20" s="42">
-        <v>0</v>
-      </c>
-      <c r="I20" s="42">
-        <v>0</v>
-      </c>
-      <c r="J20" s="43">
+      <c r="F20" s="40">
+        <v>0</v>
+      </c>
+      <c r="G20" s="40">
+        <v>0</v>
+      </c>
+      <c r="H20" s="40">
+        <v>0</v>
+      </c>
+      <c r="I20" s="40">
+        <v>0</v>
+      </c>
+      <c r="J20" s="41">
         <v>0</v>
       </c>
       <c r="K20" s="6"/>
       <c r="L20" s="12">
         <v>15</v>
       </c>
-      <c r="M20" s="28">
+      <c r="M20" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N20" s="28">
+      <c r="N20" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O20" s="28">
+      <c r="O20" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P20" s="29">
+      <c r="P20" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1828,41 +1834,41 @@
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
       <c r="D21" s="12"/>
-      <c r="E21" s="39">
+      <c r="E21" s="37">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="F21" s="42">
-        <v>0</v>
-      </c>
-      <c r="G21" s="42">
-        <v>0</v>
-      </c>
-      <c r="H21" s="42">
-        <v>0</v>
-      </c>
-      <c r="I21" s="42">
-        <v>0</v>
-      </c>
-      <c r="J21" s="43">
+      <c r="F21" s="40">
+        <v>0</v>
+      </c>
+      <c r="G21" s="40">
+        <v>0</v>
+      </c>
+      <c r="H21" s="40">
+        <v>0</v>
+      </c>
+      <c r="I21" s="40">
+        <v>0</v>
+      </c>
+      <c r="J21" s="41">
         <v>0</v>
       </c>
       <c r="K21" s="6"/>
       <c r="L21" s="12">
         <v>16</v>
       </c>
-      <c r="M21" s="28">
+      <c r="M21" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N21" s="28">
+      <c r="N21" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O21" s="28">
+      <c r="O21" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P21" s="29">
+      <c r="P21" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1876,41 +1882,41 @@
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
       <c r="D22" s="12"/>
-      <c r="E22" s="39">
+      <c r="E22" s="37">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="F22" s="42">
-        <v>0</v>
-      </c>
-      <c r="G22" s="42">
-        <v>0</v>
-      </c>
-      <c r="H22" s="42">
-        <v>0</v>
-      </c>
-      <c r="I22" s="42">
-        <v>0</v>
-      </c>
-      <c r="J22" s="43">
+      <c r="F22" s="40">
+        <v>0</v>
+      </c>
+      <c r="G22" s="40">
+        <v>0</v>
+      </c>
+      <c r="H22" s="40">
+        <v>0</v>
+      </c>
+      <c r="I22" s="40">
+        <v>0</v>
+      </c>
+      <c r="J22" s="41">
         <v>0</v>
       </c>
       <c r="K22" s="6"/>
       <c r="L22" s="12">
         <v>17</v>
       </c>
-      <c r="M22" s="28">
+      <c r="M22" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N22" s="28">
+      <c r="N22" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O22" s="28">
+      <c r="O22" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P22" s="29">
+      <c r="P22" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1924,41 +1930,41 @@
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
       <c r="D23" s="12"/>
-      <c r="E23" s="39">
+      <c r="E23" s="37">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="F23" s="42">
-        <v>0</v>
-      </c>
-      <c r="G23" s="42">
-        <v>0</v>
-      </c>
-      <c r="H23" s="42">
-        <v>0</v>
-      </c>
-      <c r="I23" s="42">
-        <v>0</v>
-      </c>
-      <c r="J23" s="43">
+      <c r="F23" s="40">
+        <v>0</v>
+      </c>
+      <c r="G23" s="40">
+        <v>0</v>
+      </c>
+      <c r="H23" s="40">
+        <v>0</v>
+      </c>
+      <c r="I23" s="40">
+        <v>0</v>
+      </c>
+      <c r="J23" s="41">
         <v>0</v>
       </c>
       <c r="K23" s="6"/>
       <c r="L23" s="12">
         <v>18</v>
       </c>
-      <c r="M23" s="28">
+      <c r="M23" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N23" s="28">
+      <c r="N23" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O23" s="28">
+      <c r="O23" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P23" s="29">
+      <c r="P23" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1971,41 +1977,41 @@
       <c r="D24" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="39">
+      <c r="E24" s="37">
         <v>0.04</v>
       </c>
-      <c r="F24" s="42">
-        <v>0</v>
-      </c>
-      <c r="G24" s="42">
-        <v>0</v>
-      </c>
-      <c r="H24" s="42">
-        <v>0</v>
-      </c>
-      <c r="I24" s="42">
-        <v>0</v>
-      </c>
-      <c r="J24" s="43">
+      <c r="F24" s="40">
+        <v>0</v>
+      </c>
+      <c r="G24" s="40">
+        <v>0</v>
+      </c>
+      <c r="H24" s="40">
+        <v>0</v>
+      </c>
+      <c r="I24" s="40">
+        <v>0</v>
+      </c>
+      <c r="J24" s="41">
         <v>0</v>
       </c>
       <c r="K24" s="6"/>
       <c r="L24" s="12">
         <v>19</v>
       </c>
-      <c r="M24" s="28">
+      <c r="M24" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N24" s="28">
+      <c r="N24" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O24" s="28">
+      <c r="O24" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P24" s="29">
+      <c r="P24" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2016,41 +2022,41 @@
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
       <c r="D25" s="68"/>
-      <c r="E25" s="39">
+      <c r="E25" s="37">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="F25" s="42">
-        <v>0</v>
-      </c>
-      <c r="G25" s="42">
-        <v>0</v>
-      </c>
-      <c r="H25" s="42">
-        <v>0</v>
-      </c>
-      <c r="I25" s="42">
-        <v>0</v>
-      </c>
-      <c r="J25" s="43">
+      <c r="F25" s="40">
+        <v>0</v>
+      </c>
+      <c r="G25" s="40">
+        <v>0</v>
+      </c>
+      <c r="H25" s="40">
+        <v>0</v>
+      </c>
+      <c r="I25" s="40">
+        <v>0</v>
+      </c>
+      <c r="J25" s="41">
         <v>0</v>
       </c>
       <c r="K25" s="6"/>
       <c r="L25" s="12">
         <v>20</v>
       </c>
-      <c r="M25" s="28">
+      <c r="M25" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N25" s="28">
+      <c r="N25" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O25" s="28">
+      <c r="O25" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P25" s="29">
+      <c r="P25" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2061,41 +2067,41 @@
       <c r="B26" s="5"/>
       <c r="C26" s="6"/>
       <c r="D26" s="68"/>
-      <c r="E26" s="39">
+      <c r="E26" s="37">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="F26" s="42">
-        <v>0</v>
-      </c>
-      <c r="G26" s="42">
-        <v>0</v>
-      </c>
-      <c r="H26" s="42">
-        <v>0</v>
-      </c>
-      <c r="I26" s="42">
-        <v>0</v>
-      </c>
-      <c r="J26" s="43">
+      <c r="F26" s="40">
+        <v>0</v>
+      </c>
+      <c r="G26" s="40">
+        <v>0</v>
+      </c>
+      <c r="H26" s="40">
+        <v>0</v>
+      </c>
+      <c r="I26" s="40">
+        <v>0</v>
+      </c>
+      <c r="J26" s="41">
         <v>0</v>
       </c>
       <c r="K26" s="6"/>
       <c r="L26" s="12">
         <v>21</v>
       </c>
-      <c r="M26" s="28">
+      <c r="M26" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N26" s="28">
+      <c r="N26" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O26" s="28">
+      <c r="O26" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P26" s="29">
+      <c r="P26" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2106,41 +2112,41 @@
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
       <c r="D27" s="68"/>
-      <c r="E27" s="39">
+      <c r="E27" s="37">
         <v>4.7500000000000001E-2</v>
       </c>
-      <c r="F27" s="42">
-        <v>0</v>
-      </c>
-      <c r="G27" s="42">
-        <v>0</v>
-      </c>
-      <c r="H27" s="42">
-        <v>0</v>
-      </c>
-      <c r="I27" s="42">
-        <v>0</v>
-      </c>
-      <c r="J27" s="43">
+      <c r="F27" s="40">
+        <v>0</v>
+      </c>
+      <c r="G27" s="40">
+        <v>0</v>
+      </c>
+      <c r="H27" s="40">
+        <v>0</v>
+      </c>
+      <c r="I27" s="40">
+        <v>0</v>
+      </c>
+      <c r="J27" s="41">
         <v>0</v>
       </c>
       <c r="K27" s="6"/>
       <c r="L27" s="12">
         <v>22</v>
       </c>
-      <c r="M27" s="28">
+      <c r="M27" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N27" s="28">
+      <c r="N27" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O27" s="28">
+      <c r="O27" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P27" s="29">
+      <c r="P27" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2151,41 +2157,41 @@
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
       <c r="D28" s="68"/>
-      <c r="E28" s="39">
+      <c r="E28" s="37">
         <v>0.05</v>
       </c>
-      <c r="F28" s="42">
-        <v>0</v>
-      </c>
-      <c r="G28" s="42">
-        <v>0</v>
-      </c>
-      <c r="H28" s="42">
-        <v>0</v>
-      </c>
-      <c r="I28" s="42">
-        <v>0</v>
-      </c>
-      <c r="J28" s="43">
+      <c r="F28" s="40">
+        <v>0</v>
+      </c>
+      <c r="G28" s="40">
+        <v>0</v>
+      </c>
+      <c r="H28" s="40">
+        <v>0</v>
+      </c>
+      <c r="I28" s="40">
+        <v>0</v>
+      </c>
+      <c r="J28" s="41">
         <v>0</v>
       </c>
       <c r="K28" s="6"/>
       <c r="L28" s="12">
         <v>23</v>
       </c>
-      <c r="M28" s="28">
+      <c r="M28" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N28" s="28">
+      <c r="N28" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O28" s="28">
+      <c r="O28" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P28" s="29">
+      <c r="P28" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2196,41 +2202,41 @@
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
       <c r="D29" s="68"/>
-      <c r="E29" s="39">
+      <c r="E29" s="37">
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="F29" s="42">
-        <v>0</v>
-      </c>
-      <c r="G29" s="42">
-        <v>0</v>
-      </c>
-      <c r="H29" s="42">
-        <v>0</v>
-      </c>
-      <c r="I29" s="42">
-        <v>0</v>
-      </c>
-      <c r="J29" s="43">
+      <c r="F29" s="40">
+        <v>0</v>
+      </c>
+      <c r="G29" s="40">
+        <v>0</v>
+      </c>
+      <c r="H29" s="40">
+        <v>0</v>
+      </c>
+      <c r="I29" s="40">
+        <v>0</v>
+      </c>
+      <c r="J29" s="41">
         <v>0</v>
       </c>
       <c r="K29" s="6"/>
       <c r="L29" s="12">
         <v>24</v>
       </c>
-      <c r="M29" s="28">
+      <c r="M29" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N29" s="28">
+      <c r="N29" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O29" s="28">
+      <c r="O29" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P29" s="29">
+      <c r="P29" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2241,41 +2247,41 @@
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
       <c r="D30" s="12"/>
-      <c r="E30" s="39">
+      <c r="E30" s="37">
         <v>5.5E-2</v>
       </c>
-      <c r="F30" s="42">
-        <v>0</v>
-      </c>
-      <c r="G30" s="42">
-        <v>0</v>
-      </c>
-      <c r="H30" s="42">
-        <v>0</v>
-      </c>
-      <c r="I30" s="42">
-        <v>0</v>
-      </c>
-      <c r="J30" s="43">
+      <c r="F30" s="40">
+        <v>0</v>
+      </c>
+      <c r="G30" s="40">
+        <v>0</v>
+      </c>
+      <c r="H30" s="40">
+        <v>0</v>
+      </c>
+      <c r="I30" s="40">
+        <v>0</v>
+      </c>
+      <c r="J30" s="41">
         <v>0</v>
       </c>
       <c r="K30" s="6"/>
-      <c r="L30" s="33">
+      <c r="L30" s="31">
         <v>25</v>
       </c>
-      <c r="M30" s="44">
+      <c r="M30" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N30" s="44">
+      <c r="N30" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O30" s="44">
+      <c r="O30" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P30" s="45">
+      <c r="P30" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2286,35 +2292,35 @@
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
       <c r="D31" s="12"/>
-      <c r="E31" s="39">
+      <c r="E31" s="37">
         <v>5.5899999999999998E-2</v>
       </c>
-      <c r="F31" s="42">
-        <v>0</v>
-      </c>
-      <c r="G31" s="42">
-        <v>0</v>
-      </c>
-      <c r="H31" s="42">
-        <v>0</v>
-      </c>
-      <c r="I31" s="42">
-        <v>0</v>
-      </c>
-      <c r="J31" s="43">
+      <c r="F31" s="40">
+        <v>0</v>
+      </c>
+      <c r="G31" s="40">
+        <v>0</v>
+      </c>
+      <c r="H31" s="40">
+        <v>0</v>
+      </c>
+      <c r="I31" s="40">
+        <v>0</v>
+      </c>
+      <c r="J31" s="41">
         <v>0</v>
       </c>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
-      <c r="N31" s="46" t="s">
+      <c r="N31" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="O31" s="47">
+      <c r="O31" s="45">
         <f>SUM($O$6:$O$30)</f>
         <v>0</v>
       </c>
-      <c r="P31" s="48">
+      <c r="P31" s="46">
         <f>SUM($P$6:$P$30)</f>
         <v>0</v>
       </c>
@@ -2325,32 +2331,32 @@
       <c r="B32" s="5"/>
       <c r="C32" s="6"/>
       <c r="D32" s="12"/>
-      <c r="E32" s="39">
+      <c r="E32" s="37">
         <v>5.7500000000000002E-2</v>
       </c>
-      <c r="F32" s="42">
-        <v>0</v>
-      </c>
-      <c r="G32" s="42">
-        <v>0</v>
-      </c>
-      <c r="H32" s="42">
-        <v>0</v>
-      </c>
-      <c r="I32" s="42">
-        <v>0</v>
-      </c>
-      <c r="J32" s="43">
+      <c r="F32" s="40">
+        <v>0</v>
+      </c>
+      <c r="G32" s="40">
+        <v>0</v>
+      </c>
+      <c r="H32" s="40">
+        <v>0</v>
+      </c>
+      <c r="I32" s="40">
+        <v>0</v>
+      </c>
+      <c r="J32" s="41">
         <v>0</v>
       </c>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
-      <c r="N32" s="49" t="s">
+      <c r="N32" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="O32" s="50"/>
-      <c r="P32" s="51">
+      <c r="O32" s="48"/>
+      <c r="P32" s="49">
         <f>$E$9</f>
         <v>0</v>
       </c>
@@ -2361,32 +2367,32 @@
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>
       <c r="D33" s="12"/>
-      <c r="E33" s="39">
+      <c r="E33" s="37">
         <v>0.06</v>
       </c>
-      <c r="F33" s="42">
-        <v>0</v>
-      </c>
-      <c r="G33" s="42">
-        <v>0</v>
-      </c>
-      <c r="H33" s="42">
-        <v>0</v>
-      </c>
-      <c r="I33" s="42">
-        <v>0</v>
-      </c>
-      <c r="J33" s="43">
+      <c r="F33" s="40">
+        <v>0</v>
+      </c>
+      <c r="G33" s="40">
+        <v>0</v>
+      </c>
+      <c r="H33" s="40">
+        <v>0</v>
+      </c>
+      <c r="I33" s="40">
+        <v>0</v>
+      </c>
+      <c r="J33" s="41">
         <v>0</v>
       </c>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
-      <c r="N33" s="52" t="s">
+      <c r="N33" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="O33" s="53"/>
-      <c r="P33" s="54">
+      <c r="O33" s="51"/>
+      <c r="P33" s="52">
         <f>O31+P31+P32</f>
         <v>0</v>
       </c>
@@ -2397,30 +2403,30 @@
       <c r="B34" s="5"/>
       <c r="C34" s="6"/>
       <c r="D34" s="12"/>
-      <c r="E34" s="39">
+      <c r="E34" s="37">
         <v>6.25E-2</v>
       </c>
-      <c r="F34" s="42">
-        <v>0</v>
-      </c>
-      <c r="G34" s="42">
-        <v>0</v>
-      </c>
-      <c r="H34" s="42">
-        <v>0</v>
-      </c>
-      <c r="I34" s="42">
-        <v>0</v>
-      </c>
-      <c r="J34" s="43">
+      <c r="F34" s="40">
+        <v>0</v>
+      </c>
+      <c r="G34" s="40">
+        <v>0</v>
+      </c>
+      <c r="H34" s="40">
+        <v>0</v>
+      </c>
+      <c r="I34" s="40">
+        <v>0</v>
+      </c>
+      <c r="J34" s="41">
         <v>0</v>
       </c>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
-      <c r="N34" s="36"/>
-      <c r="O34" s="36"/>
-      <c r="P34" s="36"/>
+      <c r="N34" s="34"/>
+      <c r="O34" s="34"/>
+      <c r="P34" s="34"/>
       <c r="Q34" s="6"/>
       <c r="R34" s="7"/>
     </row>
@@ -2428,22 +2434,22 @@
       <c r="B35" s="5"/>
       <c r="C35" s="6"/>
       <c r="D35" s="12"/>
-      <c r="E35" s="39">
+      <c r="E35" s="37">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="F35" s="42">
-        <v>0</v>
-      </c>
-      <c r="G35" s="42">
-        <v>0</v>
-      </c>
-      <c r="H35" s="42">
-        <v>0</v>
-      </c>
-      <c r="I35" s="42">
-        <v>0</v>
-      </c>
-      <c r="J35" s="43">
+      <c r="F35" s="40">
+        <v>0</v>
+      </c>
+      <c r="G35" s="40">
+        <v>0</v>
+      </c>
+      <c r="H35" s="40">
+        <v>0</v>
+      </c>
+      <c r="I35" s="40">
+        <v>0</v>
+      </c>
+      <c r="J35" s="41">
         <v>0</v>
       </c>
       <c r="K35" s="6"/>
@@ -2459,22 +2465,22 @@
       <c r="B36" s="5"/>
       <c r="C36" s="6"/>
       <c r="D36" s="12"/>
-      <c r="E36" s="39">
+      <c r="E36" s="37">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="F36" s="42">
-        <v>0</v>
-      </c>
-      <c r="G36" s="42">
-        <v>0</v>
-      </c>
-      <c r="H36" s="42">
-        <v>0</v>
-      </c>
-      <c r="I36" s="42">
-        <v>0</v>
-      </c>
-      <c r="J36" s="43">
+      <c r="F36" s="40">
+        <v>0</v>
+      </c>
+      <c r="G36" s="40">
+        <v>0</v>
+      </c>
+      <c r="H36" s="40">
+        <v>0</v>
+      </c>
+      <c r="I36" s="40">
+        <v>0</v>
+      </c>
+      <c r="J36" s="41">
         <v>0</v>
       </c>
       <c r="K36" s="6"/>
@@ -2489,23 +2495,23 @@
     <row r="37" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="5"/>
       <c r="C37" s="6"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="55">
+      <c r="D37" s="31"/>
+      <c r="E37" s="53">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F37" s="56">
-        <v>0</v>
-      </c>
-      <c r="G37" s="56">
-        <v>0</v>
-      </c>
-      <c r="H37" s="56">
-        <v>0</v>
-      </c>
-      <c r="I37" s="56">
-        <v>0</v>
-      </c>
-      <c r="J37" s="57">
+      <c r="F37" s="54">
+        <v>0</v>
+      </c>
+      <c r="G37" s="54">
+        <v>0</v>
+      </c>
+      <c r="H37" s="54">
+        <v>0</v>
+      </c>
+      <c r="I37" s="54">
+        <v>0</v>
+      </c>
+      <c r="J37" s="55">
         <v>0</v>
       </c>
       <c r="K37" s="6"/>
@@ -2537,27 +2543,27 @@
       <c r="R38" s="7"/>
     </row>
     <row r="39" spans="2:18" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="58"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="59"/>
-      <c r="J39" s="59"/>
-      <c r="K39" s="59"/>
-      <c r="L39" s="59"/>
-      <c r="M39" s="59"/>
-      <c r="N39" s="59"/>
-      <c r="O39" s="59"/>
-      <c r="P39" s="59"/>
-      <c r="Q39" s="59"/>
-      <c r="R39" s="60"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="57"/>
+      <c r="K39" s="57"/>
+      <c r="L39" s="57"/>
+      <c r="M39" s="57"/>
+      <c r="N39" s="57"/>
+      <c r="O39" s="57"/>
+      <c r="P39" s="57"/>
+      <c r="Q39" s="57"/>
+      <c r="R39" s="58"/>
     </row>
     <row r="40" spans="2:18" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6gDsFL9FhpAv57gsd67rgwMEtaXV9tJ0l/zvFidVul48vqNBOdNitBU8JapZZoIexEvurhSXb1sBfWU3CBJc+w==" saltValue="G5aEd058iqbQeqjsMHe7Cw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="3">
     <mergeCell ref="D24:D29"/>
     <mergeCell ref="H5:J6"/>
@@ -2569,16 +2575,17 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8" xr:uid="{3588E070-70BC-4260-8216-F274E4FFD78F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$AA$18:$AA$22</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6" xr:uid="{4680B0DF-7046-488B-9BC6-AC9D8AA5A688}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$AA$11:$AA$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7" xr:uid="{68096B6D-96B6-4107-B9DC-1FB7C5FBA441}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>$AA$6:$AA$8</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>